--- a/test/111.xlsx
+++ b/test/111.xlsx
@@ -16,69 +16,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>USDT</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>account_id</t>
+  </si>
+  <si>
+    <t>coin_id</t>
+  </si>
+  <si>
+    <t>coin_name</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>auditor_id</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>auth_time</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>from_address</t>
+  </si>
+  <si>
+    <t>to_address</t>
+  </si>
+  <si>
+    <t>miner_fee</t>
+  </si>
+  <si>
+    <t>tx_hash</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
     <t>address5</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>account_id</t>
-  </si>
-  <si>
-    <t>coin_id</t>
-  </si>
-  <si>
-    <t>coin_name</t>
-  </si>
-  <si>
-    <t>member_id</t>
-  </si>
-  <si>
-    <t>num</t>
-  </si>
-  <si>
-    <t>fee</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>auditor_id</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>auth_time</t>
-  </si>
-  <si>
-    <t>order_id</t>
-  </si>
-  <si>
-    <t>from_address</t>
-  </si>
-  <si>
-    <t>to_address</t>
-  </si>
-  <si>
-    <t>miner_fee</t>
-  </si>
-  <si>
-    <t>tx_hash</t>
-  </si>
-  <si>
-    <t>remarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>address4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb0F829C3B27A4C15248974e721620C8f23266774</t>
+  </si>
+  <si>
+    <t>CCE</t>
+  </si>
+  <si>
+    <t>0x8ddf3253d5c87bdba33da846decaba16dcf63490</t>
+  </si>
+  <si>
+    <t>token_address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX201806191655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -425,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -439,67 +458,76 @@
     <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>4</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
+      <c r="S1" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
         <v>20</v>
@@ -535,6 +563,44 @@
       </c>
       <c r="O2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43251.686643518522</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>10000</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/test/111.xlsx
+++ b/test/111.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>USDT</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -73,17 +70,6 @@
   </si>
   <si>
     <t>remarks</t>
-  </si>
-  <si>
-    <t>address5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xb0F829C3B27A4C15248974e721620C8f23266774</t>
   </si>
   <si>
     <t>CCE</t>
@@ -97,6 +83,22 @@
   </si>
   <si>
     <t>EX201806191655</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb0F829C3B27A4C15248974e721620C8f23266774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xb0F829C3B27A4C15248974e721620C8f23266774</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EX201806231209</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +449,7 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,61 +472,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
       <c r="S1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
@@ -540,14 +542,11 @@
       <c r="D2" s="1">
         <v>43251.680671296293</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+      <c r="G2" t="s">
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>1000</v>
@@ -562,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
@@ -579,10 +578,10 @@
         <v>43251.686643518522</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3">
         <v>10000</v>
@@ -597,10 +596,10 @@
         <v>5</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
